--- a/spliced/walkingToRunning/2023-03-27_19-42-09/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-42-09/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.856590270996094</v>
+        <v>-0.2191115766763687</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.252686023712158</v>
+        <v>-0.8925584554672241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6668555736541748</v>
+        <v>0.058589544147253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.994077205657959</v>
+        <v>-0.4737097918987274</v>
       </c>
       <c r="B3" t="n">
-        <v>4.401273250579834</v>
+        <v>-0.3764378130435943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2966761589050293</v>
+        <v>-0.0346210934221744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5494767427444458</v>
+        <v>2.269346237182617</v>
       </c>
       <c r="B4" t="n">
-        <v>2.293114900588989</v>
+        <v>2.84225869178772</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.938781261444092</v>
+        <v>-1.580319762229919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.656754016876221</v>
+        <v>2.80038046836853</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6400907635688782</v>
+        <v>-2.297109603881836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8974853157997131</v>
+        <v>-0.6647250056266785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.037869453430176</v>
+        <v>-2.487059593200684</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.455584764480591</v>
+        <v>-0.9021458625793456</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.363073825836182</v>
+        <v>2.389388084411621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4055328667163849</v>
+        <v>-9.80595874786377</v>
       </c>
       <c r="B7" t="n">
-        <v>9.243432998657228</v>
+        <v>2.084323167800904</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.18677282333374</v>
+        <v>0.3504720032215118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.240935325622559</v>
+        <v>1.612078070640564</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.536012172698975</v>
+        <v>6.0146164894104</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.926780104637146</v>
+        <v>2.238120555877685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.342033505439758</v>
+        <v>3.856590270996094</v>
       </c>
       <c r="B9" t="n">
-        <v>2.555702686309814</v>
+        <v>-5.252686023712158</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.59523355960846</v>
+        <v>0.6668555736541748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.227951049804688</v>
+        <v>7.994077205657959</v>
       </c>
       <c r="B10" t="n">
-        <v>2.566887855529785</v>
+        <v>4.401273250579834</v>
       </c>
       <c r="C10" t="n">
-        <v>1.657018899917602</v>
+        <v>0.2966761589050293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.749465942382812</v>
+        <v>0.5494767427444458</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.05479621887207</v>
+        <v>2.293114900588989</v>
       </c>
       <c r="C11" t="n">
-        <v>8.297345161437988</v>
+        <v>-1.938781261444092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.375124931335449</v>
+        <v>-5.656754016876221</v>
       </c>
       <c r="B12" t="n">
-        <v>-9.55262565612793</v>
+        <v>-0.6400907635688782</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.865561485290528</v>
+        <v>0.8974853157997131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.318631649017334</v>
+        <v>-7.037869453430176</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.592221736907959</v>
+        <v>-3.455584764480591</v>
       </c>
       <c r="C13" t="n">
-        <v>2.812298059463501</v>
+        <v>-5.363073825836182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.787132740020752</v>
+        <v>-0.4055328667163849</v>
       </c>
       <c r="B14" t="n">
-        <v>2.726144790649414</v>
+        <v>9.243432998657228</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.260491132736206</v>
+        <v>-5.18677282333374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.182144641876221</v>
+        <v>7.240935325622559</v>
       </c>
       <c r="B15" t="n">
-        <v>2.194577932357788</v>
+        <v>-3.536012172698975</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2743056118488312</v>
+        <v>-0.926780104637146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-5.860219478607178</v>
+        <v>1.342033505439758</v>
       </c>
       <c r="B16" t="n">
-        <v>4.652675628662109</v>
+        <v>2.555702686309814</v>
       </c>
       <c r="C16" t="n">
-        <v>1.372593283653259</v>
+        <v>-1.59523355960846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.136338233947754</v>
+        <v>-3.227951049804688</v>
       </c>
       <c r="B17" t="n">
-        <v>6.668688774108887</v>
+        <v>2.566887855529785</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.213619470596313</v>
+        <v>1.657018899917602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4337623715400696</v>
+        <v>-7.749465942382812</v>
       </c>
       <c r="B18" t="n">
-        <v>7.815978527069092</v>
+        <v>-4.05479621887207</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.397445678710938</v>
+        <v>8.297345161437988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.690476894378662</v>
+        <v>5.375124931335449</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.785386085510254</v>
+        <v>-9.55262565612793</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.533448219299316</v>
+        <v>-2.865561485290528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.124719500541687</v>
+        <v>3.318631649017334</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.268948078155518</v>
+        <v>-4.592221736907959</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5054680109024048</v>
+        <v>2.812298059463501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>6.787132740020752</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.726144790649414</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.260491132736206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.182144641876221</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.194577932357788</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2743056118488312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-5.860219478607178</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.652675628662109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.372593283653259</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.136338233947754</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.668688774108887</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.213619470596313</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.4337623715400696</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.815978527069092</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.397445678710938</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.690476894378662</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-9.785386085510254</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.533448219299316</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.124719500541687</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-6.268948078155518</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5054680109024048</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.1537309736013412</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>1.004677534103394</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.5731122493743896</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-7.232280254364014</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.663843870162964</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.63588333129883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.14389431476593</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.762216567993164</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.083192825317383</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.391319036483765</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-6.093712329864502</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.177400588989258</v>
       </c>
     </row>
   </sheetData>
